--- a/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科技传媒情况.xlsx
+++ b/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科技传媒情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,388 +588,194 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>14751</v>
+        <v>16241</v>
       </c>
       <c r="D2" t="n">
-        <v>2147</v>
+        <v>2049</v>
       </c>
       <c r="E2" t="n">
-        <v>9102</v>
+        <v>8670</v>
       </c>
       <c r="F2" t="n">
-        <v>2761</v>
+        <v>1616</v>
       </c>
       <c r="G2" t="n">
-        <v>1831</v>
+        <v>983</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="J2" t="n">
-        <v>943</v>
+        <v>974</v>
       </c>
       <c r="K2" t="n">
-        <v>6175</v>
+        <v>5155</v>
       </c>
       <c r="L2" t="n">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M2" t="n">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O2" t="n">
-        <v>1956</v>
+        <v>2203</v>
       </c>
       <c r="P2" t="n">
-        <v>2129</v>
+        <v>2006</v>
       </c>
       <c r="Q2" t="n">
-        <v>9044</v>
+        <v>8011</v>
       </c>
       <c r="R2" t="n">
-        <v>932</v>
+        <v>857</v>
       </c>
       <c r="S2" t="n">
-        <v>724</v>
+        <v>528</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="U2" t="n">
-        <v>1736</v>
+        <v>1523</v>
       </c>
       <c r="V2" t="n">
-        <v>1186</v>
+        <v>1032</v>
       </c>
       <c r="W2" t="n">
-        <v>2869</v>
+        <v>2856</v>
       </c>
       <c r="X2" t="n">
+        <v>668</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>423</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14038</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>659</v>
+      </c>
+      <c r="AD2" t="n">
         <v>759</v>
       </c>
-      <c r="Y2" t="n">
-        <v>533</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>12795</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>58</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1829</v>
-      </c>
       <c r="AE2" t="n">
-        <v>1107</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C3" t="n">
-        <v>15186</v>
+        <v>13769</v>
       </c>
       <c r="D3" t="n">
-        <v>2126</v>
+        <v>2236</v>
       </c>
       <c r="E3" t="n">
-        <v>9070</v>
+        <v>11438</v>
       </c>
       <c r="F3" t="n">
-        <v>1743</v>
+        <v>1696</v>
       </c>
       <c r="G3" t="n">
-        <v>1123</v>
+        <v>968</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>202</v>
+        <v>680</v>
       </c>
       <c r="J3" t="n">
-        <v>971</v>
+        <v>1071</v>
       </c>
       <c r="K3" t="n">
-        <v>5887</v>
+        <v>7541</v>
       </c>
       <c r="L3" t="n">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="M3" t="n">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="N3" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O3" t="n">
-        <v>1984</v>
+        <v>2161</v>
       </c>
       <c r="P3" t="n">
-        <v>2075</v>
+        <v>2197</v>
       </c>
       <c r="Q3" t="n">
-        <v>8371</v>
+        <v>10663</v>
       </c>
       <c r="R3" t="n">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="S3" t="n">
-        <v>754</v>
+        <v>431</v>
       </c>
       <c r="T3" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U3" t="n">
-        <v>1782</v>
+        <v>1481</v>
       </c>
       <c r="V3" t="n">
-        <v>1104</v>
+        <v>1126</v>
       </c>
       <c r="W3" t="n">
-        <v>2484</v>
+        <v>3122</v>
       </c>
       <c r="X3" t="n">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="Y3" t="n">
-        <v>580</v>
+        <v>349</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>13202</v>
+        <v>11608</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="n">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="AD3" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="AE3" t="n">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>79</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16241</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2049</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8670</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1616</v>
-      </c>
-      <c r="G4" t="n">
-        <v>983</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>680</v>
-      </c>
-      <c r="J4" t="n">
-        <v>974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5155</v>
-      </c>
-      <c r="L4" t="n">
-        <v>189</v>
-      </c>
-      <c r="M4" t="n">
-        <v>105</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2203</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2006</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8011</v>
-      </c>
-      <c r="R4" t="n">
-        <v>857</v>
-      </c>
-      <c r="S4" t="n">
-        <v>528</v>
-      </c>
-      <c r="T4" t="n">
-        <v>46</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1523</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1032</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2856</v>
-      </c>
-      <c r="X4" t="n">
-        <v>668</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>423</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>14038</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>659</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>759</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>107</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13769</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2236</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11438</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1696</v>
-      </c>
-      <c r="G5" t="n">
-        <v>968</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>680</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1071</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7541</v>
-      </c>
-      <c r="L5" t="n">
-        <v>215</v>
-      </c>
-      <c r="M5" t="n">
-        <v>82</v>
-      </c>
-      <c r="N5" t="n">
-        <v>75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2161</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2197</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10663</v>
-      </c>
-      <c r="R5" t="n">
-        <v>954</v>
-      </c>
-      <c r="S5" t="n">
-        <v>431</v>
-      </c>
-      <c r="T5" t="n">
-        <v>69</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1481</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1126</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3122</v>
-      </c>
-      <c r="X5" t="n">
-        <v>739</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>349</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11608</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>39</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>775</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>742</v>
-      </c>
-      <c r="AE5" t="n">
         <v>537</v>
       </c>
     </row>
